--- a/zmaind/ts_realtime_quote.xlsx
+++ b/zmaind/ts_realtime_quote.xlsx
@@ -14,99 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
-  <si>
-    <t>TS_CODE</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>NAME</t>
-  </si>
-  <si>
-    <t>PRICE</t>
   </si>
   <si>
     <t>CHANGE</t>
   </si>
   <si>
-    <t>OPEN</t>
-  </si>
-  <si>
-    <t>PRE_CLOSE</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>600979.SH</t>
-  </si>
-  <si>
-    <t>600756.SH</t>
-  </si>
-  <si>
-    <t>002398.SZ</t>
-  </si>
-  <si>
-    <t>002418.SZ</t>
-  </si>
-  <si>
-    <t>603359.SH</t>
-  </si>
-  <si>
-    <t>600861.SH</t>
-  </si>
-  <si>
-    <t>002345.SZ</t>
-  </si>
-  <si>
-    <t>广安爱众</t>
-  </si>
-  <si>
-    <t>浪潮软件</t>
-  </si>
-  <si>
-    <t>垒知集团</t>
-  </si>
-  <si>
-    <t>康盛股份</t>
-  </si>
-  <si>
-    <t>东珠生态</t>
-  </si>
-  <si>
-    <t>北京人力</t>
-  </si>
-  <si>
-    <t>潮宏基</t>
-  </si>
-  <si>
-    <t>2.9% ↗</t>
-  </si>
-  <si>
-    <t>0.87% ↗</t>
-  </si>
-  <si>
-    <t>0.74% ↗</t>
-  </si>
-  <si>
-    <t>0.27% ↗</t>
-  </si>
-  <si>
-    <t>-7.08% ↘</t>
-  </si>
-  <si>
-    <t>-0.66% ↘</t>
-  </si>
-  <si>
-    <t>15:00:01</t>
-  </si>
-  <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
-    <t>20250314</t>
+    <t>爱仕达</t>
   </si>
 </sst>
 </file>
@@ -464,218 +380,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>5.67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2">
-        <v>5.52</v>
-      </c>
-      <c r="F2">
-        <v>5.51</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>17.34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>17.2</v>
-      </c>
-      <c r="F3">
-        <v>17.19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>5.44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>5.39</v>
-      </c>
-      <c r="F4">
-        <v>5.4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
-        <v>3.78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>3.78</v>
-      </c>
-      <c r="F5">
-        <v>3.77</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>5.51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>5.6</v>
-      </c>
-      <c r="F6">
-        <v>5.93</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>21.15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>21.29</v>
-      </c>
-      <c r="F7">
-        <v>21.29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>8.99</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="F8">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
+      <c r="B2">
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>
